--- a/src/app/python_files/output.xlsx
+++ b/src/app/python_files/output.xlsx
@@ -1,43 +1,733 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView windowWidth="24750" windowHeight="12080"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="109">
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>cosine_similarity</t>
+  </si>
+  <si>
+    <t>Important_Event</t>
+  </si>
+  <si>
+    <t>timestamp</t>
+  </si>
+  <si>
+    <t>2021-01-02</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>2024-10-26</t>
+  </si>
+  <si>
+    <t>2021-01-16</t>
+  </si>
+  <si>
+    <t>2021-01-30</t>
+  </si>
+  <si>
+    <t>美国重返巴黎协定</t>
+  </si>
+  <si>
+    <t>2021-02-13</t>
+  </si>
+  <si>
+    <t>2021-02-27</t>
+  </si>
+  <si>
+    <t>2021-03-13</t>
+  </si>
+  <si>
+    <t>中国气候公报</t>
+  </si>
+  <si>
+    <t>2021-03-27</t>
+  </si>
+  <si>
+    <t>2021-04-10</t>
+  </si>
+  <si>
+    <t>中美应对气候危机联合声明</t>
+  </si>
+  <si>
+    <t>2021-04-24</t>
+  </si>
+  <si>
+    <t>2021-05-08</t>
+  </si>
+  <si>
+    <t>2021-05-22</t>
+  </si>
+  <si>
+    <t>2021-06-05</t>
+  </si>
+  <si>
+    <t>2021-06-19</t>
+  </si>
+  <si>
+    <t>2021-07-03</t>
+  </si>
+  <si>
+    <t>2021-07-17</t>
+  </si>
+  <si>
+    <t>2021-07-31</t>
+  </si>
+  <si>
+    <t>2021-08-14</t>
+  </si>
+  <si>
+    <t>2021-08-28</t>
+  </si>
+  <si>
+    <t>国合会2021年会</t>
+  </si>
+  <si>
+    <t>2021-09-11</t>
+  </si>
+  <si>
+    <t>2021-09-25</t>
+  </si>
+  <si>
+    <t>2021-10-09</t>
+  </si>
+  <si>
+    <t>2021-10-23</t>
+  </si>
+  <si>
+    <t>联合国气候大会</t>
+  </si>
+  <si>
+    <t>2021-11-06</t>
+  </si>
+  <si>
+    <t>2021-11-20</t>
+  </si>
+  <si>
+    <t>2021-12-04</t>
+  </si>
+  <si>
+    <t>IPCC发布《气候变化绿皮书》</t>
+  </si>
+  <si>
+    <t>2021-12-18</t>
+  </si>
+  <si>
+    <t>2022-01-01</t>
+  </si>
+  <si>
+    <t>2022-01-15</t>
+  </si>
+  <si>
+    <t>2022-01-29</t>
+  </si>
+  <si>
+    <t>北京冬奥会</t>
+  </si>
+  <si>
+    <t>2022-02-12</t>
+  </si>
+  <si>
+    <t>2022-02-26</t>
+  </si>
+  <si>
+    <t>2022-03-12</t>
+  </si>
+  <si>
+    <t>2022-03-26</t>
+  </si>
+  <si>
+    <t>2022-04-09</t>
+  </si>
+  <si>
+    <t>2022-04-23</t>
+  </si>
+  <si>
+    <t>2022-05-07</t>
+  </si>
+  <si>
+    <t>国务院印发《气象高质量发展纲要》</t>
+  </si>
+  <si>
+    <t>2022-05-21</t>
+  </si>
+  <si>
+    <t>2022-06-04</t>
+  </si>
+  <si>
+    <t>2022-06-18</t>
+  </si>
+  <si>
+    <t>2022-07-02</t>
+  </si>
+  <si>
+    <t>2022-07-16</t>
+  </si>
+  <si>
+    <t>2022-07-30</t>
+  </si>
+  <si>
+    <t>2022-08-13</t>
+  </si>
+  <si>
+    <t>2022-08-27</t>
+  </si>
+  <si>
+    <t>2022-09-10</t>
+  </si>
+  <si>
+    <t>气候行动周</t>
+  </si>
+  <si>
+    <t>2022-09-24</t>
+  </si>
+  <si>
+    <t>2022-10-08</t>
+  </si>
+  <si>
+    <t>2022-10-22</t>
+  </si>
+  <si>
+    <t>2022-11-05</t>
+  </si>
+  <si>
+    <t>第27届联合国气候大会</t>
+  </si>
+  <si>
+    <t>2022-11-19</t>
+  </si>
+  <si>
+    <t>2022-12-03</t>
+  </si>
+  <si>
+    <t>2022-12-17</t>
+  </si>
+  <si>
+    <t>2022-12-31</t>
+  </si>
+  <si>
+    <t>2023-01-14</t>
+  </si>
+  <si>
+    <t>2023-01-28</t>
+  </si>
+  <si>
+    <t>2023-02-11</t>
+  </si>
+  <si>
+    <t>2023-02-25</t>
+  </si>
+  <si>
+    <t>2023-03-11</t>
+  </si>
+  <si>
+    <t>2023-03-25</t>
+  </si>
+  <si>
+    <t>2023-04-08</t>
+  </si>
+  <si>
+    <t>全国气象科教融合创新联盟成立</t>
+  </si>
+  <si>
+    <t>2023-04-22</t>
+  </si>
+  <si>
+    <t>2023-05-06</t>
+  </si>
+  <si>
+    <t>2023-05-20</t>
+  </si>
+  <si>
+    <t>2023-06-03</t>
+  </si>
+  <si>
+    <t>2023-06-17</t>
+  </si>
+  <si>
+    <t>2023-07-01</t>
+  </si>
+  <si>
+    <t>2023-07-15</t>
+  </si>
+  <si>
+    <t>2023-07-29</t>
+  </si>
+  <si>
+    <t>2023-08-12</t>
+  </si>
+  <si>
+    <t>2023-08-26</t>
+  </si>
+  <si>
+    <t>2023-09-09</t>
+  </si>
+  <si>
+    <t>2023-09-23</t>
+  </si>
+  <si>
+    <t>2023-10-07</t>
+  </si>
+  <si>
+    <t>2023-10-21</t>
+  </si>
+  <si>
+    <t>2023-11-04</t>
+  </si>
+  <si>
+    <t>2023-11-18</t>
+  </si>
+  <si>
+    <t>第28届联合国气候大会</t>
+  </si>
+  <si>
+    <t>2023-12-02</t>
+  </si>
+  <si>
+    <t>2023-12-16</t>
+  </si>
+  <si>
+    <t>2023-12-30</t>
+  </si>
+  <si>
+    <t>2024-01-13</t>
+  </si>
+  <si>
+    <t>2024全国生态环境保护大会</t>
+  </si>
+  <si>
+    <t>2024-01-27</t>
+  </si>
+  <si>
+    <t>2024-02-10</t>
+  </si>
+  <si>
+    <t>2024-02-24</t>
+  </si>
+  <si>
+    <t>2024-03-09</t>
+  </si>
+  <si>
+    <t>2024-03-23</t>
+  </si>
+  <si>
+    <t>WMO发布《2023全球气候状况》</t>
+  </si>
+  <si>
+    <t>2024-04-06</t>
+  </si>
+  <si>
+    <t>2024-04-20</t>
+  </si>
+  <si>
+    <t>2024-05-04</t>
+  </si>
+  <si>
+    <t>2024-05-18</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <sz val="11"/>
       <color theme="1"/>
-      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
-    <fill>
-      <patternFill/>
+  <fills count="33">
+    <fill>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -46,93 +736,331 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -415,101 +1343,1023 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F90"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
+  <cols>
+    <col min="3" max="3" width="36.5454545454545" customWidth="1"/>
+    <col min="4" max="4" width="10.6363636363636" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>message</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>value</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>timestamp</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>2024-10-01</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>0.256796363559275</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3">
+        <v>0.3941015223141</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <v>0.398393452369819</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5">
+        <v>0.240952551807124</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6">
+        <v>0.209731265089754</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7">
+        <v>0.366515488436674</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8">
+        <v>0.259672712711426</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9">
+        <v>0.456394279776567</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10">
+        <v>0.364536472863484</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11">
+        <v>0.349839646001025</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12">
+        <v>0.28179899162577</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13">
+        <v>0.260624233436139</v>
+      </c>
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14">
+        <v>0.332890386101628</v>
+      </c>
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15">
+        <v>0.301595156820401</v>
+      </c>
+      <c r="C15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15" s="3"/>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16">
+        <v>0.291257542704157</v>
+      </c>
+      <c r="C16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17">
+        <v>0.239579484647573</v>
+      </c>
+      <c r="C17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18">
+        <v>0.264430583473911</v>
+      </c>
+      <c r="C18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19">
+        <v>0.410914924945644</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20">
+        <v>0.326744142798639</v>
+      </c>
+      <c r="C20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21">
+        <v>0.272691755185147</v>
+      </c>
+      <c r="C21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22">
+        <v>0.342882530787187</v>
+      </c>
+      <c r="C22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23">
+        <v>0.532968815515848</v>
+      </c>
+      <c r="C23" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24">
+        <v>0.430215884074777</v>
+      </c>
+      <c r="C24" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25">
+        <v>0.384243313340569</v>
+      </c>
+      <c r="C25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26">
+        <v>0.440625263157599</v>
+      </c>
+      <c r="C26" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>37</v>
+      </c>
+      <c r="B27">
+        <v>0.32791684187366</v>
+      </c>
+      <c r="C27" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>38</v>
+      </c>
+      <c r="B28">
+        <v>0.300692847058404</v>
+      </c>
+      <c r="C28" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>39</v>
+      </c>
+      <c r="B29">
+        <v>0.341512739938624</v>
+      </c>
+      <c r="C29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>40</v>
+      </c>
+      <c r="B30">
+        <v>0.36402327770802</v>
+      </c>
+      <c r="C30" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
+        <v>42</v>
+      </c>
+      <c r="B31">
+        <v>0.335492243213559</v>
+      </c>
+      <c r="C31" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
+        <v>43</v>
+      </c>
+      <c r="B32">
+        <v>0.263117375116735</v>
+      </c>
+      <c r="C32" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
+        <v>44</v>
+      </c>
+      <c r="B33">
+        <v>0.299381371604935</v>
+      </c>
+      <c r="C33" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
+        <v>45</v>
+      </c>
+      <c r="B34">
+        <v>0.356018285401252</v>
+      </c>
+      <c r="C34" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" t="s">
+        <v>46</v>
+      </c>
+      <c r="B35">
+        <v>0.371051821541334</v>
+      </c>
+      <c r="C35" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" t="s">
+        <v>47</v>
+      </c>
+      <c r="B36">
+        <v>0.287212497241731</v>
+      </c>
+      <c r="C36" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" t="s">
+        <v>48</v>
+      </c>
+      <c r="B37">
+        <v>0.426035529638503</v>
+      </c>
+      <c r="C37" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" t="s">
+        <v>50</v>
+      </c>
+      <c r="B38">
+        <v>0.277091701024281</v>
+      </c>
+      <c r="C38" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" t="s">
+        <v>51</v>
+      </c>
+      <c r="B39">
+        <v>0.250635521006195</v>
+      </c>
+      <c r="C39" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" t="s">
+        <v>52</v>
+      </c>
+      <c r="B40">
+        <v>0.27455880751723</v>
+      </c>
+      <c r="C40" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" t="s">
+        <v>53</v>
+      </c>
+      <c r="B41">
+        <v>0.294559163638798</v>
+      </c>
+      <c r="C41" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" t="s">
+        <v>54</v>
+      </c>
+      <c r="B42">
+        <v>0.312661098104806</v>
+      </c>
+      <c r="C42" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" t="s">
+        <v>55</v>
+      </c>
+      <c r="B43">
+        <v>0.274102034357263</v>
+      </c>
+      <c r="C43" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" t="s">
+        <v>56</v>
+      </c>
+      <c r="B44">
+        <v>0.309877150922814</v>
+      </c>
+      <c r="C44" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" t="s">
+        <v>57</v>
+      </c>
+      <c r="B45">
+        <v>0.271417333063158</v>
+      </c>
+      <c r="C45" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" t="s">
+        <v>58</v>
+      </c>
+      <c r="B46">
+        <v>0.337770959135733</v>
+      </c>
+      <c r="C46" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" t="s">
+        <v>60</v>
+      </c>
+      <c r="B47">
+        <v>0.270660814243702</v>
+      </c>
+      <c r="C47" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" t="s">
+        <v>61</v>
+      </c>
+      <c r="B48">
+        <v>0.293611251409257</v>
+      </c>
+      <c r="C48" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" t="s">
+        <v>62</v>
+      </c>
+      <c r="B49">
+        <v>0.323441184651473</v>
+      </c>
+      <c r="C49" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" t="s">
+        <v>63</v>
+      </c>
+      <c r="B50">
+        <v>0.48961649574637</v>
+      </c>
+      <c r="C50" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" t="s">
+        <v>65</v>
+      </c>
+      <c r="B51">
+        <v>0.418874651180133</v>
+      </c>
+      <c r="C51" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" t="s">
+        <v>66</v>
+      </c>
+      <c r="B52">
+        <v>0.331277576425871</v>
+      </c>
+      <c r="C52" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" t="s">
+        <v>67</v>
+      </c>
+      <c r="B53">
+        <v>0.266270807389407</v>
+      </c>
+      <c r="C53" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" t="s">
+        <v>68</v>
+      </c>
+      <c r="B54">
+        <v>0.290830700665301</v>
+      </c>
+      <c r="C54" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" t="s">
+        <v>69</v>
+      </c>
+      <c r="B55">
+        <v>0.326013014919168</v>
+      </c>
+      <c r="C55" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" t="s">
+        <v>70</v>
+      </c>
+      <c r="B56">
+        <v>0.29899108070185</v>
+      </c>
+      <c r="C56" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" t="s">
+        <v>71</v>
+      </c>
+      <c r="B57">
+        <v>0.315977011763379</v>
+      </c>
+      <c r="C57" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" t="s">
+        <v>72</v>
+      </c>
+      <c r="B58">
+        <v>0.218553394989005</v>
+      </c>
+      <c r="C58" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" t="s">
+        <v>73</v>
+      </c>
+      <c r="B59">
+        <v>0.264776987421072</v>
+      </c>
+      <c r="C59" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" t="s">
+        <v>74</v>
+      </c>
+      <c r="B60">
+        <v>0.361177353706933</v>
+      </c>
+      <c r="C60" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" t="s">
+        <v>75</v>
+      </c>
+      <c r="B61">
+        <v>0.422217084026272</v>
+      </c>
+      <c r="C61" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" t="s">
+        <v>77</v>
+      </c>
+      <c r="B62">
+        <v>0.293810360016464</v>
+      </c>
+      <c r="C62" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" t="s">
+        <v>78</v>
+      </c>
+      <c r="B63">
+        <v>0.350914861914909</v>
+      </c>
+      <c r="C63" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" t="s">
+        <v>79</v>
+      </c>
+      <c r="B64">
+        <v>0.283785604114897</v>
+      </c>
+      <c r="C64" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" t="s">
+        <v>80</v>
+      </c>
+      <c r="B65">
+        <v>0.2897608791384</v>
+      </c>
+      <c r="C65" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" t="s">
+        <v>81</v>
+      </c>
+      <c r="B66">
+        <v>0.415125985872844</v>
+      </c>
+      <c r="C66" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" t="s">
+        <v>82</v>
+      </c>
+      <c r="B67">
+        <v>0.354842811378914</v>
+      </c>
+      <c r="C67" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" t="s">
+        <v>83</v>
+      </c>
+      <c r="B68">
+        <v>0.355301756190879</v>
+      </c>
+      <c r="C68" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" t="s">
+        <v>84</v>
+      </c>
+      <c r="B69">
+        <v>0.256875506670211</v>
+      </c>
+      <c r="C69" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" t="s">
+        <v>85</v>
+      </c>
+      <c r="B70">
+        <v>0.291802221574683</v>
+      </c>
+      <c r="C70" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" t="s">
+        <v>86</v>
+      </c>
+      <c r="B71">
+        <v>0.303788032557775</v>
+      </c>
+      <c r="C71" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" t="s">
+        <v>87</v>
+      </c>
+      <c r="B72">
+        <v>0.372447948634012</v>
+      </c>
+      <c r="C72" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" t="s">
+        <v>88</v>
+      </c>
+      <c r="B73">
+        <v>0.312977805887167</v>
+      </c>
+      <c r="C73" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" t="s">
+        <v>89</v>
+      </c>
+      <c r="B74">
+        <v>0.36035016913767</v>
+      </c>
+      <c r="C74" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" t="s">
+        <v>90</v>
+      </c>
+      <c r="B75">
+        <v>0.369416244104006</v>
+      </c>
+      <c r="C75" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" t="s">
+        <v>91</v>
+      </c>
+      <c r="B76">
+        <v>0.352091620950415</v>
+      </c>
+      <c r="C76" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" t="s">
+        <v>92</v>
+      </c>
+      <c r="B77">
+        <v>0.468537760842228</v>
+      </c>
+      <c r="C77" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" t="s">
+        <v>94</v>
+      </c>
+      <c r="B78">
+        <v>0.387091158070564</v>
+      </c>
+      <c r="C78" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" t="s">
+        <v>95</v>
+      </c>
+      <c r="B79">
+        <v>0.25660905313032</v>
+      </c>
+      <c r="C79" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" t="s">
+        <v>96</v>
+      </c>
+      <c r="B80">
+        <v>0.302092306775293</v>
+      </c>
+      <c r="C80" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" t="s">
+        <v>97</v>
+      </c>
+      <c r="B81">
+        <v>0.407050838122967</v>
+      </c>
+      <c r="C81" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" t="s">
+        <v>99</v>
+      </c>
+      <c r="B82">
+        <v>0.28859759602365</v>
+      </c>
+      <c r="C82" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" t="s">
         <v>100</v>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>2024-10-17 17:12:48</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>2024-10-02</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>150</v>
-      </c>
-      <c r="C3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>120</v>
-      </c>
-      <c r="C4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>2024-10-04</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>180</v>
-      </c>
-      <c r="C5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>2024-10-05</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>200</v>
-      </c>
-      <c r="C6" t="inlineStr"/>
+      <c r="B83">
+        <v>0.233922569247104</v>
+      </c>
+      <c r="C83" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" t="s">
+        <v>101</v>
+      </c>
+      <c r="B84">
+        <v>0.261279466385812</v>
+      </c>
+      <c r="C84" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" t="s">
+        <v>102</v>
+      </c>
+      <c r="B85">
+        <v>0.307463354809871</v>
+      </c>
+      <c r="C85" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" t="s">
+        <v>103</v>
+      </c>
+      <c r="B86">
+        <v>0.369163910915759</v>
+      </c>
+      <c r="C86" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" t="s">
+        <v>105</v>
+      </c>
+      <c r="B87">
+        <v>0.313378752469631</v>
+      </c>
+      <c r="C87" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" t="s">
+        <v>106</v>
+      </c>
+      <c r="B88">
+        <v>0.342524743556051</v>
+      </c>
+      <c r="C88" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" t="s">
+        <v>107</v>
+      </c>
+      <c r="B89">
+        <v>0.353209406084882</v>
+      </c>
+      <c r="C89" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" t="s">
+        <v>108</v>
+      </c>
+      <c r="B90">
+        <v>0.348243738993647</v>
+      </c>
+      <c r="C90" t="s">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>